--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>2581046.66683821</v>
+        <v>4.413333333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>321553.336</v>
       </c>
       <c r="G3" t="n">
-        <v>2259493.330838209</v>
+        <v>4.396666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>27013.9325</v>
       </c>
       <c r="G4" t="n">
-        <v>2286507.26333821</v>
+        <v>4.400000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>561.9375</v>
       </c>
       <c r="G5" t="n">
-        <v>2285945.32583821</v>
+        <v>4.353333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>103548.9091</v>
       </c>
       <c r="G6" t="n">
-        <v>2389494.234938209</v>
+        <v>4.36</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>17082</v>
       </c>
       <c r="G7" t="n">
-        <v>2389494.234938209</v>
+        <v>4.316666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>220842.3355</v>
       </c>
       <c r="G8" t="n">
-        <v>2389494.234938209</v>
+        <v>4.320000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>2389504.234938209</v>
+        <v>4.343333333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>35171.85</v>
       </c>
       <c r="G10" t="n">
-        <v>2354332.384938209</v>
+        <v>4.343333333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>2354342.384938209</v>
+        <v>4.366666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>2263.4448</v>
       </c>
       <c r="G12" t="n">
-        <v>2352078.940138209</v>
+        <v>4.343333333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>107067.6326</v>
       </c>
       <c r="G13" t="n">
-        <v>2352078.940138209</v>
+        <v>4.343333333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>766827.3901</v>
       </c>
       <c r="G14" t="n">
-        <v>1585251.550038209</v>
+        <v>4.306666666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>422740</v>
       </c>
       <c r="G15" t="n">
-        <v>1585251.550038209</v>
+        <v>4.293333333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>29205.6074</v>
       </c>
       <c r="G16" t="n">
-        <v>1585251.550038209</v>
+        <v>4.280000000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>79793</v>
       </c>
       <c r="G17" t="n">
-        <v>1585251.550038209</v>
+        <v>4.280000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>591960</v>
       </c>
       <c r="G18" t="n">
-        <v>1585251.550038209</v>
+        <v>4.280000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1026,6 +1047,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,7 +1069,7 @@
         <v>62717</v>
       </c>
       <c r="G19" t="n">
-        <v>1585251.550038209</v>
+        <v>4.280000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1067,6 +1089,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1088,7 +1111,7 @@
         <v>499288.4579</v>
       </c>
       <c r="G20" t="n">
-        <v>2084540.007938209</v>
+        <v>4.306666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1131,7 +1155,7 @@
         <v>661692.7989000001</v>
       </c>
       <c r="G21" t="n">
-        <v>2746232.806838209</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1151,6 +1175,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1172,7 +1197,7 @@
         <v>4424.778</v>
       </c>
       <c r="G22" t="n">
-        <v>2741808.028838209</v>
+        <v>4.470000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1194,6 +1219,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,7 +1241,7 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>2741808.028838209</v>
+        <v>4.523333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1235,6 +1261,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1256,7 +1283,7 @@
         <v>14651</v>
       </c>
       <c r="G24" t="n">
-        <v>2727157.028838209</v>
+        <v>4.443333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1276,6 +1303,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1297,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>2727169.028838209</v>
+        <v>4.443333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1317,6 +1345,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,7 +1367,7 @@
         <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>2727169.028838209</v>
+        <v>4.443333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1358,6 +1387,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1379,7 +1409,7 @@
         <v>14651</v>
       </c>
       <c r="G27" t="n">
-        <v>2712518.028838209</v>
+        <v>4.443333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1399,6 +1429,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1420,7 +1451,7 @@
         <v>1215893.8634</v>
       </c>
       <c r="G28" t="n">
-        <v>3928411.892238209</v>
+        <v>4.443333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1440,6 +1471,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1461,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>3928400.892238209</v>
+        <v>4.423333333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1481,6 +1513,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,7 +1535,7 @@
         <v>840</v>
       </c>
       <c r="G30" t="n">
-        <v>3928400.892238209</v>
+        <v>4.480000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1522,6 +1555,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1543,7 +1577,7 @@
         <v>12833.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>3915566.892338209</v>
+        <v>4.396666666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1563,6 +1597,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1584,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>3915576.892338209</v>
+        <v>4.383333333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1604,6 +1639,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1625,7 +1661,7 @@
         <v>431297.9126</v>
       </c>
       <c r="G33" t="n">
-        <v>3484278.979738209</v>
+        <v>4.320000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1645,6 +1681,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>3484288.979738209</v>
+        <v>4.356666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1686,6 +1723,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1707,7 +1745,7 @@
         <v>22703.1</v>
       </c>
       <c r="G35" t="n">
-        <v>3461585.879738209</v>
+        <v>4.310000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1727,6 +1765,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1748,7 +1787,7 @@
         <v>84.8173</v>
       </c>
       <c r="G36" t="n">
-        <v>3461670.697038209</v>
+        <v>4.346666666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1768,6 +1807,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1789,7 +1829,7 @@
         <v>28000</v>
       </c>
       <c r="G37" t="n">
-        <v>3433670.697038209</v>
+        <v>4.316666666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1809,6 +1849,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1830,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>3433680.697038209</v>
+        <v>4.346666666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1850,6 +1891,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1871,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>3433680.697038209</v>
+        <v>4.343333333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1891,6 +1933,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1912,7 +1955,7 @@
         <v>2900</v>
       </c>
       <c r="G40" t="n">
-        <v>3436580.697038209</v>
+        <v>4.380000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1932,6 +1975,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1953,7 +1997,7 @@
         <v>93712</v>
       </c>
       <c r="G41" t="n">
-        <v>3342868.697038209</v>
+        <v>4.376666666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1973,6 +2017,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1994,7 +2039,7 @@
         <v>27437.5486</v>
       </c>
       <c r="G42" t="n">
-        <v>3370306.245638209</v>
+        <v>4.380000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2014,6 +2059,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2035,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>3370316.245638209</v>
+        <v>4.376666666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2055,6 +2101,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2076,7 +2123,7 @@
         <v>8777</v>
       </c>
       <c r="G44" t="n">
-        <v>3361539.245638209</v>
+        <v>4.373333333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2096,6 +2143,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2117,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="n">
-        <v>3361551.245638209</v>
+        <v>4.380000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2137,6 +2185,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2158,7 +2207,7 @@
         <v>6012</v>
       </c>
       <c r="G46" t="n">
-        <v>3361551.245638209</v>
+        <v>4.383333333333336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2178,6 +2227,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2199,7 +2249,7 @@
         <v>3100</v>
       </c>
       <c r="G47" t="n">
-        <v>3361551.245638209</v>
+        <v>4.400000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2219,6 +2269,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2240,7 +2291,7 @@
         <v>142110.1449</v>
       </c>
       <c r="G48" t="n">
-        <v>3219441.100738209</v>
+        <v>4.386666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2260,6 +2311,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,7 +2333,7 @@
         <v>36407.7054</v>
       </c>
       <c r="G49" t="n">
-        <v>3255848.806138209</v>
+        <v>4.386666666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2301,6 +2353,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2322,7 +2375,7 @@
         <v>16043</v>
       </c>
       <c r="G50" t="n">
-        <v>3239805.806138209</v>
+        <v>4.373333333333336</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2342,6 +2395,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2363,7 +2417,7 @@
         <v>38250.2967</v>
       </c>
       <c r="G51" t="n">
-        <v>3239805.806138209</v>
+        <v>4.373333333333336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2383,6 +2437,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2404,7 +2459,7 @@
         <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>3240005.806138209</v>
+        <v>4.373333333333337</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2424,6 +2479,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2445,7 +2501,7 @@
         <v>9113.636363629999</v>
       </c>
       <c r="G53" t="n">
-        <v>3240005.806138209</v>
+        <v>4.38666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2465,6 +2521,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,7 +2543,7 @@
         <v>393113.4756</v>
       </c>
       <c r="G54" t="n">
-        <v>3633119.281738209</v>
+        <v>4.403333333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2506,6 +2563,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2527,7 +2585,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>3633129.281738209</v>
+        <v>4.413333333333337</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2547,6 +2605,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2568,7 +2627,7 @@
         <v>108482.2395</v>
       </c>
       <c r="G56" t="n">
-        <v>3633129.281738209</v>
+        <v>4.423333333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2588,6 +2647,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2609,7 +2669,7 @@
         <v>1773758.7003</v>
       </c>
       <c r="G57" t="n">
-        <v>5406887.982038208</v>
+        <v>4.440000000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2629,6 +2689,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,7 +2711,7 @@
         <v>20144.444</v>
       </c>
       <c r="G58" t="n">
-        <v>5427032.426038208</v>
+        <v>4.463333333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2670,6 +2731,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2691,7 +2753,7 @@
         <v>151753.5288</v>
       </c>
       <c r="G59" t="n">
-        <v>5578785.954838209</v>
+        <v>4.493333333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2711,6 +2773,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2732,7 +2795,7 @@
         <v>75224.0422</v>
       </c>
       <c r="G60" t="n">
-        <v>5654009.997038209</v>
+        <v>4.516666666666669</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2752,6 +2815,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2773,7 +2837,7 @@
         <v>138149.2943</v>
       </c>
       <c r="G61" t="n">
-        <v>5792159.291338209</v>
+        <v>4.533333333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2793,6 +2857,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2814,7 +2879,7 @@
         <v>57605.7658</v>
       </c>
       <c r="G62" t="n">
-        <v>5792159.291338209</v>
+        <v>4.543333333333337</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2834,6 +2899,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2855,13 +2921,13 @@
         <v>80509.84299999999</v>
       </c>
       <c r="G63" t="n">
-        <v>5711649.448338209</v>
+        <v>4.543333333333337</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -2869,11 +2935,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>1.053411214953271</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.039719626168224</v>
       </c>
     </row>
     <row r="64">
@@ -2896,26 +2965,21 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>5711749.448338209</v>
+        <v>4.543333333333337</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2937,26 +3001,21 @@
         <v>46000</v>
       </c>
       <c r="G65" t="n">
-        <v>5757749.448338209</v>
+        <v>4.54666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2978,26 +3037,21 @@
         <v>70996.64350000001</v>
       </c>
       <c r="G66" t="n">
-        <v>5686752.804838208</v>
+        <v>4.520000000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3019,7 +3073,7 @@
         <v>426727.458</v>
       </c>
       <c r="G67" t="n">
-        <v>6113480.262838208</v>
+        <v>4.523333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3028,17 +3082,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3060,26 +3109,21 @@
         <v>21799.1711</v>
       </c>
       <c r="G68" t="n">
-        <v>6113480.262838208</v>
+        <v>4.523333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3101,26 +3145,21 @@
         <v>26585</v>
       </c>
       <c r="G69" t="n">
-        <v>6086895.262838208</v>
+        <v>4.523333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3142,26 +3181,21 @@
         <v>189510.0463</v>
       </c>
       <c r="G70" t="n">
-        <v>5897385.216538209</v>
+        <v>4.473333333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3183,26 +3217,21 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>5897396.216538209</v>
+        <v>4.466666666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3224,7 +3253,7 @@
         <v>157025.7867</v>
       </c>
       <c r="G72" t="n">
-        <v>5740370.429838208</v>
+        <v>4.473333333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3233,17 +3262,12 @@
         <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>1.039392523364486</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3265,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>5740381.429838208</v>
+        <v>4.510000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3279,6 +3303,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3300,7 +3325,7 @@
         <v>795921.5493</v>
       </c>
       <c r="G74" t="n">
-        <v>4944459.880538208</v>
+        <v>4.453333333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3314,6 +3339,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3335,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>4944469.880538208</v>
+        <v>4.443333333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3349,6 +3375,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3370,13 +3397,13 @@
         <v>117424.6478</v>
       </c>
       <c r="G76" t="n">
-        <v>4827045.232738208</v>
+        <v>4.396666666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3384,6 +3411,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3405,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>4827055.232738208</v>
+        <v>4.420000000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3419,6 +3447,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,13 +3469,13 @@
         <v>137375.0714</v>
       </c>
       <c r="G78" t="n">
-        <v>4689680.161338208</v>
+        <v>4.40666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3454,6 +3483,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3475,13 +3505,13 @@
         <v>127825.2934</v>
       </c>
       <c r="G79" t="n">
-        <v>4817505.454738208</v>
+        <v>4.423333333333336</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3489,6 +3519,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3510,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>4817515.454738208</v>
+        <v>4.423333333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3524,6 +3555,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3545,7 +3577,7 @@
         <v>9756.981900000001</v>
       </c>
       <c r="G81" t="n">
-        <v>4817515.454738208</v>
+        <v>4.43666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3559,6 +3591,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3580,7 +3613,7 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>4817415.454738208</v>
+        <v>4.43666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3594,6 +3627,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3615,7 +3649,7 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>4817415.454738208</v>
+        <v>4.433333333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3629,6 +3663,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3650,13 +3685,13 @@
         <v>338600.4514</v>
       </c>
       <c r="G84" t="n">
-        <v>4478815.003338208</v>
+        <v>4.420000000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3664,6 +3699,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3685,7 +3721,7 @@
         <v>224000</v>
       </c>
       <c r="G85" t="n">
-        <v>4254815.003338208</v>
+        <v>4.400000000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3699,6 +3735,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3720,7 +3757,7 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>4254915.003338208</v>
+        <v>4.390000000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3734,6 +3771,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3755,7 +3793,7 @@
         <v>234995.3468</v>
       </c>
       <c r="G87" t="n">
-        <v>4019919.656538208</v>
+        <v>4.380000000000003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3769,6 +3807,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3790,13 +3829,13 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>4019929.656538208</v>
+        <v>4.390000000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3804,6 +3843,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3825,13 +3865,13 @@
         <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>4016929.656538208</v>
+        <v>4.383333333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3839,6 +3879,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3860,13 +3901,13 @@
         <v>508</v>
       </c>
       <c r="G90" t="n">
-        <v>4016929.656538208</v>
+        <v>4.386666666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3874,6 +3915,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3895,7 +3937,7 @@
         <v>42399.7371</v>
       </c>
       <c r="G91" t="n">
-        <v>3974529.919438208</v>
+        <v>4.37666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3909,6 +3951,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3930,7 +3973,7 @@
         <v>142224.2577</v>
       </c>
       <c r="G92" t="n">
-        <v>3974529.919438208</v>
+        <v>4.373333333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3944,6 +3987,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3965,7 +4009,7 @@
         <v>24125.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>3974529.919438208</v>
+        <v>4.370000000000004</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3979,6 +4023,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4000,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>3974539.919438208</v>
+        <v>4.380000000000003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4014,6 +4059,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4035,7 +4081,7 @@
         <v>88911.5362</v>
       </c>
       <c r="G95" t="n">
-        <v>3974539.919438208</v>
+        <v>4.390000000000004</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4049,6 +4095,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4070,7 +4117,7 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>3974639.919438208</v>
+        <v>4.40666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4084,6 +4131,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4105,7 +4153,7 @@
         <v>45248.8687</v>
       </c>
       <c r="G97" t="n">
-        <v>3974639.919438208</v>
+        <v>4.413333333333336</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4119,6 +4167,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4140,7 +4189,7 @@
         <v>3396.6063</v>
       </c>
       <c r="G98" t="n">
-        <v>3974639.919438208</v>
+        <v>4.420000000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4154,6 +4203,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4175,7 +4225,7 @@
         <v>253364.3108</v>
       </c>
       <c r="G99" t="n">
-        <v>3721275.608638208</v>
+        <v>4.41666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4189,6 +4239,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4210,7 +4261,7 @@
         <v>7025.7248</v>
       </c>
       <c r="G100" t="n">
-        <v>3728301.333438208</v>
+        <v>4.41666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4224,6 +4275,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4245,7 +4297,7 @@
         <v>39480</v>
       </c>
       <c r="G101" t="n">
-        <v>3728301.333438208</v>
+        <v>4.41666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4259,6 +4311,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4280,7 +4333,7 @@
         <v>88729.0944</v>
       </c>
       <c r="G102" t="n">
-        <v>3817030.427838208</v>
+        <v>4.426666666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4294,6 +4347,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4315,7 +4369,7 @@
         <v>8479.505300000001</v>
       </c>
       <c r="G103" t="n">
-        <v>3817030.427838208</v>
+        <v>4.433333333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4329,6 +4383,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4350,7 +4405,7 @@
         <v>159375.565</v>
       </c>
       <c r="G104" t="n">
-        <v>3817030.427838208</v>
+        <v>4.440000000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4364,6 +4419,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4385,7 +4441,7 @@
         <v>12687.0977</v>
       </c>
       <c r="G105" t="n">
-        <v>3817030.427838208</v>
+        <v>4.440000000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4399,6 +4455,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4420,7 +4477,7 @@
         <v>109256.866</v>
       </c>
       <c r="G106" t="n">
-        <v>3926287.293838208</v>
+        <v>4.446666666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4434,6 +4491,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4455,7 +4513,7 @@
         <v>56538.3091</v>
       </c>
       <c r="G107" t="n">
-        <v>3926287.293838208</v>
+        <v>4.453333333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4469,6 +4527,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4490,7 +4549,7 @@
         <v>20866</v>
       </c>
       <c r="G108" t="n">
-        <v>3947153.293838208</v>
+        <v>4.463333333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4504,6 +4563,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4525,13 +4585,13 @@
         <v>35063</v>
       </c>
       <c r="G109" t="n">
-        <v>3947153.293838208</v>
+        <v>4.466666666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4539,6 +4599,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4560,13 +4621,13 @@
         <v>47189.7091</v>
       </c>
       <c r="G110" t="n">
-        <v>3947153.293838208</v>
+        <v>4.47</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4574,6 +4635,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4595,13 +4657,13 @@
         <v>92</v>
       </c>
       <c r="G111" t="n">
-        <v>3947061.293838208</v>
+        <v>4.466666666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4609,6 +4671,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="C2" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="D2" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="E2" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>33660.42154566</v>
       </c>
       <c r="G2" t="n">
-        <v>4.413333333333335</v>
+        <v>992972.6765847496</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.34</v>
+        <v>4.22</v>
       </c>
       <c r="C3" t="n">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="D3" t="n">
-        <v>4.34</v>
+        <v>4.22</v>
       </c>
       <c r="E3" t="n">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="F3" t="n">
-        <v>321553.336</v>
+        <v>14651</v>
       </c>
       <c r="G3" t="n">
-        <v>4.396666666666667</v>
+        <v>978321.6765847496</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.27</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="C4" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="D4" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="E4" t="n">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="F4" t="n">
-        <v>27013.9325</v>
+        <v>63252</v>
       </c>
       <c r="G4" t="n">
-        <v>4.400000000000001</v>
+        <v>1041573.67658475</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="C5" t="n">
-        <v>4.31</v>
+        <v>4.28</v>
       </c>
       <c r="D5" t="n">
-        <v>4.31</v>
+        <v>4.28</v>
       </c>
       <c r="E5" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="F5" t="n">
-        <v>561.9375</v>
+        <v>135877.3234</v>
       </c>
       <c r="G5" t="n">
-        <v>4.353333333333334</v>
+        <v>1177450.99998475</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="C6" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="E6" t="n">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="F6" t="n">
-        <v>103548.9091</v>
+        <v>160432.81055434</v>
       </c>
       <c r="G6" t="n">
-        <v>4.36</v>
+        <v>1337883.81053909</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="D7" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="E7" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="F7" t="n">
-        <v>17082</v>
+        <v>61939.5402</v>
       </c>
       <c r="G7" t="n">
-        <v>4.316666666666667</v>
+        <v>1399823.35073909</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="C8" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="D8" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="E8" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="F8" t="n">
-        <v>220842.3355</v>
+        <v>25555</v>
       </c>
       <c r="G8" t="n">
-        <v>4.320000000000001</v>
+        <v>1374268.35073909</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +714,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +732,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="C9" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="D9" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="E9" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>127578</v>
       </c>
       <c r="G9" t="n">
-        <v>4.343333333333335</v>
+        <v>1501846.35073909</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +776,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="C10" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="D10" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="E10" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="F10" t="n">
-        <v>35171.85</v>
+        <v>70054</v>
       </c>
       <c r="G10" t="n">
-        <v>4.343333333333335</v>
+        <v>1501846.35073909</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +800,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +818,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.39</v>
+        <v>4.35</v>
       </c>
       <c r="C11" t="n">
-        <v>4.39</v>
+        <v>4.35</v>
       </c>
       <c r="D11" t="n">
-        <v>4.39</v>
+        <v>4.35</v>
       </c>
       <c r="E11" t="n">
-        <v>4.39</v>
+        <v>4.35</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>38840.862</v>
       </c>
       <c r="G11" t="n">
-        <v>4.366666666666668</v>
+        <v>1540687.21273909</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +860,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="C12" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="D12" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="E12" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="F12" t="n">
-        <v>2263.4448</v>
+        <v>62141.2957</v>
       </c>
       <c r="G12" t="n">
-        <v>4.343333333333335</v>
+        <v>1540687.21273909</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +884,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +902,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="C13" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="D13" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="E13" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="F13" t="n">
-        <v>107067.6326</v>
+        <v>133804.7668</v>
       </c>
       <c r="G13" t="n">
-        <v>4.343333333333335</v>
+        <v>1674491.97953909</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +944,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="C14" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="D14" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="E14" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="F14" t="n">
-        <v>766827.3901</v>
+        <v>28606.27</v>
       </c>
       <c r="G14" t="n">
-        <v>4.306666666666668</v>
+        <v>1674491.97953909</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +968,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="C15" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="D15" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="E15" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="F15" t="n">
-        <v>422740</v>
+        <v>77566.21000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>4.293333333333336</v>
+        <v>1752058.18953909</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1010,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1028,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="C16" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="D16" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="E16" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="F16" t="n">
-        <v>29205.6074</v>
+        <v>2278.53881278</v>
       </c>
       <c r="G16" t="n">
-        <v>4.280000000000002</v>
+        <v>1752058.18953909</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="C17" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="D17" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="E17" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="F17" t="n">
-        <v>79793</v>
+        <v>14416.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>4.280000000000002</v>
+        <v>1737641.18963909</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1094,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,36 +1112,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="C18" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="D18" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="E18" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="F18" t="n">
-        <v>591960</v>
+        <v>12950</v>
       </c>
       <c r="G18" t="n">
-        <v>4.280000000000002</v>
+        <v>1737641.18963909</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.28</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+        <v>4.27</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1054,22 +1154,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="C19" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="D19" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="E19" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="F19" t="n">
-        <v>62717</v>
+        <v>176165.0317</v>
       </c>
       <c r="G19" t="n">
-        <v>4.280000000000002</v>
+        <v>1913806.22133909</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1079,11 +1179,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1096,38 +1196,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="C20" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="D20" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="E20" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="F20" t="n">
-        <v>499288.4579</v>
+        <v>19740</v>
       </c>
       <c r="G20" t="n">
-        <v>4.306666666666668</v>
+        <v>1913806.22133909</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.28</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1140,22 +1238,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="C21" t="n">
-        <v>4.53</v>
+        <v>4.44</v>
       </c>
       <c r="D21" t="n">
-        <v>4.53</v>
+        <v>4.44</v>
       </c>
       <c r="E21" t="n">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
       <c r="F21" t="n">
-        <v>661692.7989000001</v>
+        <v>160000</v>
       </c>
       <c r="G21" t="n">
-        <v>4.390000000000001</v>
+        <v>2073806.22133909</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1165,7 +1263,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1182,34 +1280,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="C22" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="D22" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="E22" t="n">
-        <v>4.52</v>
+        <v>4.44</v>
       </c>
       <c r="F22" t="n">
-        <v>4424.778</v>
+        <v>516444.444</v>
       </c>
       <c r="G22" t="n">
-        <v>4.470000000000002</v>
+        <v>2590250.665339089</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1226,22 +1322,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="C23" t="n">
-        <v>4.52</v>
+        <v>4.37</v>
       </c>
       <c r="D23" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="E23" t="n">
-        <v>4.52</v>
+        <v>4.37</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>1436.0625</v>
       </c>
       <c r="G23" t="n">
-        <v>4.523333333333334</v>
+        <v>2588814.602839089</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1251,7 +1347,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1268,22 +1364,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="C24" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="D24" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="E24" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="F24" t="n">
-        <v>14651</v>
+        <v>70876.90579999999</v>
       </c>
       <c r="G24" t="n">
-        <v>4.443333333333334</v>
+        <v>2659691.508639089</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1293,7 +1389,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1310,22 +1406,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="C25" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="D25" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="E25" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>7513.97379912</v>
       </c>
       <c r="G25" t="n">
-        <v>4.443333333333334</v>
+        <v>2667205.482438209</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1335,7 +1431,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1352,22 +1448,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="C26" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="D26" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="E26" t="n">
-        <v>4.52</v>
+        <v>4.41</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>52637.8156</v>
       </c>
       <c r="G26" t="n">
-        <v>4.443333333333334</v>
+        <v>2614567.66683821</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1377,7 +1473,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1394,22 +1490,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.29</v>
+        <v>4.53</v>
       </c>
       <c r="C27" t="n">
-        <v>4.29</v>
+        <v>4.53</v>
       </c>
       <c r="D27" t="n">
-        <v>4.29</v>
+        <v>4.53</v>
       </c>
       <c r="E27" t="n">
-        <v>4.29</v>
+        <v>4.53</v>
       </c>
       <c r="F27" t="n">
-        <v>14651</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>4.443333333333334</v>
+        <v>2614577.66683821</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1419,7 +1515,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1436,22 +1532,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.29</v>
+        <v>4.35</v>
       </c>
       <c r="C28" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="D28" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="E28" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1215893.8634</v>
+        <v>33551</v>
       </c>
       <c r="G28" t="n">
-        <v>4.443333333333334</v>
+        <v>2581026.66683821</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1461,7 +1557,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1478,22 +1574,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="C29" t="n">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="D29" t="n">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="E29" t="n">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>62035.8965</v>
       </c>
       <c r="G29" t="n">
-        <v>4.423333333333335</v>
+        <v>2581026.66683821</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1503,7 +1599,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1520,22 +1616,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="C30" t="n">
-        <v>4.46</v>
+        <v>4.44</v>
       </c>
       <c r="D30" t="n">
-        <v>4.46</v>
+        <v>4.44</v>
       </c>
       <c r="E30" t="n">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="F30" t="n">
-        <v>840</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4.480000000000001</v>
+        <v>2581036.66683821</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1545,7 +1641,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1562,22 +1658,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="C31" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="D31" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="E31" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="F31" t="n">
-        <v>12833.9999</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>4.396666666666668</v>
+        <v>2581046.66683821</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1587,7 +1683,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1604,22 +1700,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="C32" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="E32" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>321553.336</v>
       </c>
       <c r="G32" t="n">
-        <v>4.383333333333336</v>
+        <v>2259493.330838209</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1629,7 +1725,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1646,22 +1742,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="C33" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="D33" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="E33" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="F33" t="n">
-        <v>431297.9126</v>
+        <v>27013.9325</v>
       </c>
       <c r="G33" t="n">
-        <v>4.320000000000001</v>
+        <v>2286507.26333821</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1671,7 +1767,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1688,22 +1784,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="C34" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="D34" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="E34" t="n">
-        <v>4.38</v>
+        <v>4.31</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>561.9375</v>
       </c>
       <c r="G34" t="n">
-        <v>4.356666666666668</v>
+        <v>2285945.32583821</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1713,7 +1809,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1730,22 +1826,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="C35" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="D35" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="E35" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="F35" t="n">
-        <v>22703.1</v>
+        <v>103548.9091</v>
       </c>
       <c r="G35" t="n">
-        <v>4.310000000000001</v>
+        <v>2389494.234938209</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1755,7 +1851,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1772,22 +1868,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="C36" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="D36" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="E36" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="F36" t="n">
-        <v>84.8173</v>
+        <v>17082</v>
       </c>
       <c r="G36" t="n">
-        <v>4.346666666666668</v>
+        <v>2389494.234938209</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1797,7 +1893,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1814,22 +1910,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
       <c r="C37" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
       <c r="D37" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
       <c r="E37" t="n">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
       <c r="F37" t="n">
-        <v>28000</v>
+        <v>220842.3355</v>
       </c>
       <c r="G37" t="n">
-        <v>4.316666666666669</v>
+        <v>2389494.234938209</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1839,7 +1935,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1856,22 +1952,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="C38" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="D38" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="E38" t="n">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="F38" t="n">
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>4.346666666666668</v>
+        <v>2389504.234938209</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1881,7 +1977,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1898,22 +1994,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="C39" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="D39" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="E39" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>35171.85</v>
       </c>
       <c r="G39" t="n">
-        <v>4.343333333333336</v>
+        <v>2354332.384938209</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1923,7 +2019,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1940,22 +2036,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="C40" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D40" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E40" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F40" t="n">
-        <v>2900</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>4.380000000000003</v>
+        <v>2354342.384938209</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1965,7 +2061,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1982,22 +2078,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="C41" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="D41" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="E41" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="F41" t="n">
-        <v>93712</v>
+        <v>2263.4448</v>
       </c>
       <c r="G41" t="n">
-        <v>4.376666666666669</v>
+        <v>2352078.940138209</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2007,7 +2103,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2024,22 +2120,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="C42" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="D42" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="E42" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="F42" t="n">
-        <v>27437.5486</v>
+        <v>107067.6326</v>
       </c>
       <c r="G42" t="n">
-        <v>4.380000000000002</v>
+        <v>2352078.940138209</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2049,7 +2145,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2066,22 +2162,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="C43" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="D43" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="E43" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>766827.3901</v>
       </c>
       <c r="G43" t="n">
-        <v>4.376666666666668</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2091,7 +2187,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2108,22 +2204,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="C44" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="D44" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="E44" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="F44" t="n">
-        <v>8777</v>
+        <v>422740</v>
       </c>
       <c r="G44" t="n">
-        <v>4.373333333333335</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2133,7 +2229,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2150,22 +2246,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="C45" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="D45" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="E45" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>29205.6074</v>
       </c>
       <c r="G45" t="n">
-        <v>4.380000000000002</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2175,7 +2271,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2192,22 +2288,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.38</v>
+        <v>4.28</v>
       </c>
       <c r="C46" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="D46" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="E46" t="n">
-        <v>4.37</v>
+        <v>4.28</v>
       </c>
       <c r="F46" t="n">
-        <v>6012</v>
+        <v>79793</v>
       </c>
       <c r="G46" t="n">
-        <v>4.383333333333336</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2217,7 +2313,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2234,22 +2330,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="C47" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="D47" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="E47" t="n">
-        <v>4.39</v>
+        <v>4.28</v>
       </c>
       <c r="F47" t="n">
-        <v>3100</v>
+        <v>591960</v>
       </c>
       <c r="G47" t="n">
-        <v>4.400000000000001</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2259,7 +2355,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2276,22 +2372,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="C48" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="D48" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="E48" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="F48" t="n">
-        <v>142110.1449</v>
+        <v>62717</v>
       </c>
       <c r="G48" t="n">
-        <v>4.386666666666668</v>
+        <v>1585251.550038209</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2301,7 +2397,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2318,22 +2414,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.38</v>
+        <v>4.28</v>
       </c>
       <c r="C49" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="D49" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="E49" t="n">
-        <v>4.38</v>
+        <v>4.28</v>
       </c>
       <c r="F49" t="n">
-        <v>36407.7054</v>
+        <v>499288.4579</v>
       </c>
       <c r="G49" t="n">
-        <v>4.386666666666668</v>
+        <v>2084540.007938209</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2343,7 +2439,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2363,19 +2459,19 @@
         <v>4.36</v>
       </c>
       <c r="C50" t="n">
-        <v>4.36</v>
+        <v>4.53</v>
       </c>
       <c r="D50" t="n">
-        <v>4.36</v>
+        <v>4.53</v>
       </c>
       <c r="E50" t="n">
-        <v>4.36</v>
+        <v>4.31</v>
       </c>
       <c r="F50" t="n">
-        <v>16043</v>
+        <v>661692.7989000001</v>
       </c>
       <c r="G50" t="n">
-        <v>4.373333333333336</v>
+        <v>2746232.806838209</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2385,7 +2481,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2402,22 +2498,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="C51" t="n">
-        <v>4.36</v>
+        <v>4.52</v>
       </c>
       <c r="D51" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="E51" t="n">
-        <v>4.36</v>
+        <v>4.52</v>
       </c>
       <c r="F51" t="n">
-        <v>38250.2967</v>
+        <v>4424.778</v>
       </c>
       <c r="G51" t="n">
-        <v>4.373333333333336</v>
+        <v>2741808.028838209</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2427,7 +2523,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2444,22 +2540,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="C52" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="D52" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="E52" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>4.373333333333337</v>
+        <v>2741808.028838209</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2469,7 +2565,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2486,22 +2582,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="C53" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="D53" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="E53" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="F53" t="n">
-        <v>9113.636363629999</v>
+        <v>14651</v>
       </c>
       <c r="G53" t="n">
-        <v>4.38666666666667</v>
+        <v>2727157.028838209</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2511,7 +2607,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2528,22 +2624,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="C54" t="n">
-        <v>4.41</v>
+        <v>4.52</v>
       </c>
       <c r="D54" t="n">
-        <v>4.41</v>
+        <v>4.52</v>
       </c>
       <c r="E54" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="F54" t="n">
-        <v>393113.4756</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>4.403333333333337</v>
+        <v>2727169.028838209</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2553,7 +2649,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2570,22 +2666,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
       <c r="C55" t="n">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
       <c r="D55" t="n">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
       <c r="E55" t="n">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>4.413333333333337</v>
+        <v>2727169.028838209</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2595,7 +2691,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2612,22 +2708,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.41</v>
+        <v>4.29</v>
       </c>
       <c r="C56" t="n">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
       <c r="D56" t="n">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
       <c r="E56" t="n">
-        <v>4.41</v>
+        <v>4.29</v>
       </c>
       <c r="F56" t="n">
-        <v>108482.2395</v>
+        <v>14651</v>
       </c>
       <c r="G56" t="n">
-        <v>4.423333333333336</v>
+        <v>2712518.028838209</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2637,7 +2733,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2654,22 +2750,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.42</v>
+        <v>4.29</v>
       </c>
       <c r="C57" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="D57" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="E57" t="n">
-        <v>4.38</v>
+        <v>4.26</v>
       </c>
       <c r="F57" t="n">
-        <v>1773758.7003</v>
+        <v>1215893.8634</v>
       </c>
       <c r="G57" t="n">
-        <v>4.440000000000002</v>
+        <v>3928411.892238209</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2679,7 +2775,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2699,19 +2795,19 @@
         <v>4.46</v>
       </c>
       <c r="C58" t="n">
-        <v>4.5</v>
+        <v>4.46</v>
       </c>
       <c r="D58" t="n">
-        <v>4.51</v>
+        <v>4.46</v>
       </c>
       <c r="E58" t="n">
         <v>4.46</v>
       </c>
       <c r="F58" t="n">
-        <v>20144.444</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>4.463333333333336</v>
+        <v>3928400.892238209</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2721,7 +2817,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2738,22 +2834,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="C59" t="n">
-        <v>4.52</v>
+        <v>4.46</v>
       </c>
       <c r="D59" t="n">
-        <v>4.52</v>
+        <v>4.46</v>
       </c>
       <c r="E59" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="F59" t="n">
-        <v>151753.5288</v>
+        <v>840</v>
       </c>
       <c r="G59" t="n">
-        <v>4.493333333333336</v>
+        <v>3928400.892238209</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2763,7 +2859,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2780,22 +2876,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="C60" t="n">
-        <v>4.53</v>
+        <v>4.27</v>
       </c>
       <c r="D60" t="n">
-        <v>4.53</v>
+        <v>4.27</v>
       </c>
       <c r="E60" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="F60" t="n">
-        <v>75224.0422</v>
+        <v>12833.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>4.516666666666669</v>
+        <v>3915566.892338209</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2805,7 +2901,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2822,22 +2918,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.52</v>
+        <v>4.42</v>
       </c>
       <c r="C61" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="D61" t="n">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="E61" t="n">
-        <v>4.52</v>
+        <v>4.42</v>
       </c>
       <c r="F61" t="n">
-        <v>138149.2943</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>4.533333333333336</v>
+        <v>3915576.892338209</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2847,7 +2943,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2864,22 +2960,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="C62" t="n">
-        <v>4.55</v>
+        <v>4.27</v>
       </c>
       <c r="D62" t="n">
-        <v>4.55</v>
+        <v>4.27</v>
       </c>
       <c r="E62" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="F62" t="n">
-        <v>57605.7658</v>
+        <v>431297.9126</v>
       </c>
       <c r="G62" t="n">
-        <v>4.543333333333337</v>
+        <v>3484278.979738209</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2889,7 +2985,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2906,76 +3002,80 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.55</v>
+        <v>4.38</v>
       </c>
       <c r="C63" t="n">
-        <v>4.53</v>
+        <v>4.38</v>
       </c>
       <c r="D63" t="n">
-        <v>4.55</v>
+        <v>4.38</v>
       </c>
       <c r="E63" t="n">
-        <v>4.53</v>
+        <v>4.38</v>
       </c>
       <c r="F63" t="n">
-        <v>80509.84299999999</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>4.543333333333337</v>
+        <v>3484288.979738209</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1.053411214953271</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.039719626168224</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.55</v>
+        <v>4.28</v>
       </c>
       <c r="C64" t="n">
-        <v>4.55</v>
+        <v>4.28</v>
       </c>
       <c r="D64" t="n">
-        <v>4.55</v>
+        <v>4.28</v>
       </c>
       <c r="E64" t="n">
-        <v>4.55</v>
+        <v>4.28</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>22703.1</v>
       </c>
       <c r="G64" t="n">
-        <v>4.543333333333337</v>
+        <v>3461585.879738209</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2986,32 +3086,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.55</v>
+        <v>4.38</v>
       </c>
       <c r="C65" t="n">
-        <v>4.56</v>
+        <v>4.38</v>
       </c>
       <c r="D65" t="n">
-        <v>4.56</v>
+        <v>4.38</v>
       </c>
       <c r="E65" t="n">
-        <v>4.55</v>
+        <v>4.38</v>
       </c>
       <c r="F65" t="n">
-        <v>46000</v>
+        <v>84.8173</v>
       </c>
       <c r="G65" t="n">
-        <v>4.54666666666667</v>
+        <v>3461670.697038209</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3022,32 +3128,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.56</v>
+        <v>4.29</v>
       </c>
       <c r="C66" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="D66" t="n">
-        <v>4.57</v>
+        <v>4.29</v>
       </c>
       <c r="E66" t="n">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="F66" t="n">
-        <v>70996.64350000001</v>
+        <v>28000</v>
       </c>
       <c r="G66" t="n">
-        <v>4.520000000000002</v>
+        <v>3433670.697038209</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3170,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="C67" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="D67" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="E67" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="F67" t="n">
-        <v>426727.458</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>4.523333333333334</v>
+        <v>3433680.697038209</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3082,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3094,32 +3212,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="C68" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="D68" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="E68" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="F68" t="n">
-        <v>21799.1711</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>4.523333333333334</v>
+        <v>3433680.697038209</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3130,32 +3254,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.45</v>
+        <v>4.38</v>
       </c>
       <c r="C69" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="D69" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="E69" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="F69" t="n">
-        <v>26585</v>
+        <v>2900</v>
       </c>
       <c r="G69" t="n">
-        <v>4.523333333333334</v>
+        <v>3436580.697038209</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3166,32 +3296,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.48</v>
+        <v>4.36</v>
       </c>
       <c r="C70" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="D70" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="E70" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="F70" t="n">
-        <v>189510.0463</v>
+        <v>93712</v>
       </c>
       <c r="G70" t="n">
-        <v>4.473333333333335</v>
+        <v>3342868.697038209</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3202,32 +3338,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54</v>
+        <v>4.37</v>
       </c>
       <c r="C71" t="n">
-        <v>4.54</v>
+        <v>4.38</v>
       </c>
       <c r="D71" t="n">
-        <v>4.54</v>
+        <v>4.38</v>
       </c>
       <c r="E71" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>27437.5486</v>
       </c>
       <c r="G71" t="n">
-        <v>4.466666666666669</v>
+        <v>3370306.245638209</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3238,32 +3380,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="C72" t="n">
-        <v>4.47</v>
+        <v>4.39</v>
       </c>
       <c r="D72" t="n">
-        <v>4.47</v>
+        <v>4.39</v>
       </c>
       <c r="E72" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="F72" t="n">
-        <v>157025.7867</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>4.473333333333335</v>
+        <v>3370316.245638209</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3274,32 +3422,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="C73" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="D73" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="E73" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>8777</v>
       </c>
       <c r="G73" t="n">
-        <v>4.510000000000002</v>
+        <v>3361539.245638209</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3310,32 +3464,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="C74" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="D74" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="E74" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="F74" t="n">
-        <v>795921.5493</v>
+        <v>12</v>
       </c>
       <c r="G74" t="n">
-        <v>4.453333333333336</v>
+        <v>3361551.245638209</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3346,32 +3506,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="C75" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="D75" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="E75" t="n">
-        <v>4.44</v>
+        <v>4.37</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>6012</v>
       </c>
       <c r="G75" t="n">
-        <v>4.443333333333336</v>
+        <v>3361551.245638209</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3382,32 +3548,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="C76" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="D76" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="E76" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="F76" t="n">
-        <v>117424.6478</v>
+        <v>3100</v>
       </c>
       <c r="G76" t="n">
-        <v>4.396666666666669</v>
+        <v>3361551.245638209</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3418,32 +3590,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="C77" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="D77" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="E77" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>142110.1449</v>
       </c>
       <c r="G77" t="n">
-        <v>4.420000000000003</v>
+        <v>3219441.100738209</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3454,7 +3632,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="C78" t="n">
         <v>4.4</v>
@@ -3463,23 +3641,29 @@
         <v>4.4</v>
       </c>
       <c r="E78" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="F78" t="n">
-        <v>137375.0714</v>
+        <v>36407.7054</v>
       </c>
       <c r="G78" t="n">
-        <v>4.40666666666667</v>
+        <v>3255848.806138209</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3490,32 +3674,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="C79" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="D79" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="E79" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="F79" t="n">
-        <v>127825.2934</v>
+        <v>16043</v>
       </c>
       <c r="G79" t="n">
-        <v>4.423333333333336</v>
+        <v>3239805.806138209</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3526,32 +3716,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="C80" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="D80" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="E80" t="n">
-        <v>4.44</v>
+        <v>4.36</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>38250.2967</v>
       </c>
       <c r="G80" t="n">
-        <v>4.423333333333336</v>
+        <v>3239805.806138209</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3562,32 +3758,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="C81" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="E81" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="F81" t="n">
-        <v>9756.981900000001</v>
+        <v>200</v>
       </c>
       <c r="G81" t="n">
-        <v>4.43666666666667</v>
+        <v>3240005.806138209</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3598,32 +3800,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="C82" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="E82" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>9113.636363629999</v>
       </c>
       <c r="G82" t="n">
-        <v>4.43666666666667</v>
+        <v>3240005.806138209</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3634,32 +3842,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="C83" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="D83" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="E83" t="n">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>393113.4756</v>
       </c>
       <c r="G83" t="n">
-        <v>4.433333333333336</v>
+        <v>3633119.281738209</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3670,32 +3884,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="C84" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="D84" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="E84" t="n">
-        <v>4.4</v>
+        <v>4.43</v>
       </c>
       <c r="F84" t="n">
-        <v>338600.4514</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>4.420000000000003</v>
+        <v>3633129.281738209</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3706,22 +3926,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.39</v>
+        <v>4.41</v>
       </c>
       <c r="C85" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="D85" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="E85" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="F85" t="n">
-        <v>224000</v>
+        <v>108482.2395</v>
       </c>
       <c r="G85" t="n">
-        <v>4.400000000000003</v>
+        <v>3633129.281738209</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3730,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3742,22 +3968,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="C86" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="D86" t="n">
-        <v>4.4</v>
+        <v>4.46</v>
       </c>
       <c r="E86" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>1773758.7003</v>
       </c>
       <c r="G86" t="n">
-        <v>4.390000000000003</v>
+        <v>5406887.982038208</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3766,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +4010,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.37</v>
+        <v>4.46</v>
       </c>
       <c r="C87" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="n">
-        <v>4.37</v>
+        <v>4.51</v>
       </c>
       <c r="E87" t="n">
-        <v>4.37</v>
+        <v>4.46</v>
       </c>
       <c r="F87" t="n">
-        <v>234995.3468</v>
+        <v>20144.444</v>
       </c>
       <c r="G87" t="n">
-        <v>4.380000000000003</v>
+        <v>5427032.426038208</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3802,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3814,32 +4052,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C88" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="D88" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="E88" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>151753.5288</v>
       </c>
       <c r="G88" t="n">
-        <v>4.390000000000003</v>
+        <v>5578785.954838209</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +4094,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
       <c r="C89" t="n">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="D89" t="n">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="E89" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>75224.0422</v>
       </c>
       <c r="G89" t="n">
-        <v>4.383333333333336</v>
+        <v>5654009.997038209</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3874,34 +4118,42 @@
         <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1.055889929742389</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.011848341232227</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
       <c r="C90" t="n">
-        <v>4.38</v>
+        <v>4.55</v>
       </c>
       <c r="D90" t="n">
-        <v>4.38</v>
+        <v>4.55</v>
       </c>
       <c r="E90" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
       <c r="F90" t="n">
-        <v>508</v>
+        <v>138149.2943</v>
       </c>
       <c r="G90" t="n">
-        <v>4.386666666666669</v>
+        <v>5792159.291338209</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3922,22 +4174,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.37</v>
+        <v>4.52</v>
       </c>
       <c r="C91" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="D91" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="E91" t="n">
-        <v>4.37</v>
+        <v>4.52</v>
       </c>
       <c r="F91" t="n">
-        <v>42399.7371</v>
+        <v>57605.7658</v>
       </c>
       <c r="G91" t="n">
-        <v>4.37666666666667</v>
+        <v>5792159.291338209</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3958,28 +4210,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="C92" t="n">
-        <v>4.37</v>
+        <v>4.53</v>
       </c>
       <c r="D92" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="E92" t="n">
-        <v>4.37</v>
+        <v>4.53</v>
       </c>
       <c r="F92" t="n">
-        <v>142224.2577</v>
+        <v>80509.84299999999</v>
       </c>
       <c r="G92" t="n">
-        <v>4.373333333333336</v>
+        <v>5711649.448338209</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3994,22 +4246,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="C93" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="D93" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="E93" t="n">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="F93" t="n">
-        <v>24125.9999</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>4.370000000000004</v>
+        <v>5711749.448338209</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4030,28 +4282,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="C94" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="D94" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="E94" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>46000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.380000000000003</v>
+        <v>5757749.448338209</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4066,28 +4318,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="C95" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="D95" t="n">
-        <v>4.4</v>
+        <v>4.57</v>
       </c>
       <c r="E95" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="F95" t="n">
-        <v>88911.5362</v>
+        <v>70996.64350000001</v>
       </c>
       <c r="G95" t="n">
-        <v>4.390000000000004</v>
+        <v>5686752.804838208</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4102,28 +4354,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="C96" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D96" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="E96" t="n">
         <v>4.42</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>426727.458</v>
       </c>
       <c r="G96" t="n">
-        <v>4.40666666666667</v>
+        <v>6113480.262838208</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4138,28 +4390,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="C97" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D97" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="E97" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="F97" t="n">
-        <v>45248.8687</v>
+        <v>21799.1711</v>
       </c>
       <c r="G97" t="n">
-        <v>4.413333333333336</v>
+        <v>6113480.262838208</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4174,28 +4426,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="C98" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="D98" t="n">
-        <v>4.42</v>
+        <v>4.45</v>
       </c>
       <c r="E98" t="n">
         <v>4.42</v>
       </c>
       <c r="F98" t="n">
-        <v>3396.6063</v>
+        <v>26585</v>
       </c>
       <c r="G98" t="n">
-        <v>4.420000000000003</v>
+        <v>6086895.262838208</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4210,28 +4462,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.41</v>
+        <v>4.48</v>
       </c>
       <c r="C99" t="n">
         <v>4.41</v>
       </c>
       <c r="D99" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="E99" t="n">
         <v>4.41</v>
       </c>
       <c r="F99" t="n">
-        <v>253364.3108</v>
+        <v>189510.0463</v>
       </c>
       <c r="G99" t="n">
-        <v>4.41666666666667</v>
+        <v>5897385.216538209</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4246,28 +4498,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="C100" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="D100" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="E100" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="F100" t="n">
-        <v>7025.7248</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>4.41666666666667</v>
+        <v>5897396.216538209</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4282,28 +4534,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="C101" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="D101" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="E101" t="n">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="F101" t="n">
-        <v>39480</v>
+        <v>157025.7867</v>
       </c>
       <c r="G101" t="n">
-        <v>4.41666666666667</v>
+        <v>5740370.429838208</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4318,28 +4570,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="C102" t="n">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="D102" t="n">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="E102" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="F102" t="n">
-        <v>88729.0944</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>4.426666666666669</v>
+        <v>5740381.429838208</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4354,28 +4606,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C103" t="n">
-        <v>4.44</v>
+        <v>4.37</v>
       </c>
       <c r="D103" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="E103" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="F103" t="n">
-        <v>8479.505300000001</v>
+        <v>795921.5493</v>
       </c>
       <c r="G103" t="n">
-        <v>4.433333333333336</v>
+        <v>4944459.880538208</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4402,10 +4654,10 @@
         <v>4.44</v>
       </c>
       <c r="F104" t="n">
-        <v>159375.565</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>4.440000000000003</v>
+        <v>4944469.880538208</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4426,22 +4678,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="C105" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="D105" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="E105" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="F105" t="n">
-        <v>12687.0977</v>
+        <v>117424.6478</v>
       </c>
       <c r="G105" t="n">
-        <v>4.440000000000002</v>
+        <v>4827045.232738208</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4465,19 +4717,19 @@
         <v>4.44</v>
       </c>
       <c r="C106" t="n">
-        <v>4.46</v>
+        <v>4.44</v>
       </c>
       <c r="D106" t="n">
-        <v>4.46</v>
+        <v>4.44</v>
       </c>
       <c r="E106" t="n">
         <v>4.44</v>
       </c>
       <c r="F106" t="n">
-        <v>109256.866</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4.446666666666669</v>
+        <v>4827055.232738208</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4498,22 +4750,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="C107" t="n">
-        <v>4.46</v>
+        <v>4.4</v>
       </c>
       <c r="D107" t="n">
-        <v>4.46</v>
+        <v>4.4</v>
       </c>
       <c r="E107" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="F107" t="n">
-        <v>56538.3091</v>
+        <v>137375.0714</v>
       </c>
       <c r="G107" t="n">
-        <v>4.453333333333336</v>
+        <v>4689680.161338208</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4534,22 +4786,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="C108" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="D108" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="E108" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="F108" t="n">
-        <v>20866</v>
+        <v>127825.2934</v>
       </c>
       <c r="G108" t="n">
-        <v>4.463333333333335</v>
+        <v>4817505.454738208</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4570,22 +4822,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C109" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="D109" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="E109" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F109" t="n">
-        <v>35063</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4.466666666666668</v>
+        <v>4817515.454738208</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4606,22 +4858,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C110" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="D110" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="E110" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F110" t="n">
-        <v>47189.7091</v>
+        <v>9756.981900000001</v>
       </c>
       <c r="G110" t="n">
-        <v>4.47</v>
+        <v>4817515.454738208</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4642,22 +4894,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="C111" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="D111" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="E111" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="F111" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>4.466666666666668</v>
+        <v>4817415.454738208</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4673,6 +4925,1050 @@
       </c>
       <c r="N111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4817415.454738208</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>338600.4514</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4478815.003338208</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F114" t="n">
+        <v>224000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4254815.003338208</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4254915.003338208</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F116" t="n">
+        <v>234995.3468</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4019919.656538208</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4019929.656538208</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4016929.656538208</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F119" t="n">
+        <v>508</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4016929.656538208</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F120" t="n">
+        <v>42399.7371</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3974529.919438208</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F121" t="n">
+        <v>142224.2577</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3974529.919438208</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24125.9999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3974529.919438208</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3974539.919438208</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>88911.5362</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3974539.919438208</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3974639.919438208</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F126" t="n">
+        <v>45248.8687</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3974639.919438208</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3396.6063</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3974639.919438208</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F128" t="n">
+        <v>253364.3108</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3721275.608638208</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7025.7248</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3728301.333438208</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F130" t="n">
+        <v>39480</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3728301.333438208</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F131" t="n">
+        <v>88729.0944</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3817030.427838208</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8479.505300000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3817030.427838208</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F133" t="n">
+        <v>159375.565</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3817030.427838208</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12687.0977</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3817030.427838208</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F135" t="n">
+        <v>109256.866</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3926287.293838208</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F136" t="n">
+        <v>56538.3091</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3926287.293838208</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20866</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3947153.293838208</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F138" t="n">
+        <v>35063</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3947153.293838208</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F139" t="n">
+        <v>47189.7091</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3947153.293838208</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F140" t="n">
+        <v>92</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3947061.293838208</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>978321.6765847496</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>1041573.67658475</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,21 @@
         <v>1177450.99998475</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>4.27</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +589,21 @@
         <v>1337883.81053909</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>4.28</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +628,21 @@
         <v>1399823.35073909</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>4.3</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,24 +667,21 @@
         <v>1374268.35073909</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,24 +708,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,24 +743,21 @@
         <v>1501846.35073909</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,24 +782,21 @@
         <v>1540687.21273909</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,22 +823,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,24 +858,19 @@
         <v>1674491.97953909</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,22 +897,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1006,22 +934,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,22 +971,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,24 +1006,19 @@
         <v>1737641.18963909</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,24 +1043,19 @@
         <v>1737641.18963909</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,22 +1082,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1216,22 +1119,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1258,22 +1156,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1300,22 +1193,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,24 +1228,19 @@
         <v>2588814.602839089</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1384,22 +1267,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,24 +1302,17 @@
         <v>2667205.482438209</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,24 +1337,15 @@
         <v>2614567.66683821</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,24 +1370,15 @@
         <v>2614577.66683821</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1552,22 +1405,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1594,22 +1438,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,24 +1469,15 @@
         <v>2581036.66683821</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,24 +1502,15 @@
         <v>2581046.66683821</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1720,22 +1537,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1762,22 +1570,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1804,22 +1603,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1846,22 +1636,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1888,22 +1669,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1930,22 +1702,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1972,22 +1735,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2014,22 +1768,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,22 +1801,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2098,22 +1834,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2140,22 +1867,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2182,22 +1900,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2224,22 +1933,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2266,22 +1966,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2308,22 +1999,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2350,22 +2032,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2392,22 +2065,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2434,22 +2098,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2476,22 +2131,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,24 +2162,15 @@
         <v>2741808.028838209</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2560,22 +2197,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2602,22 +2230,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,22 +2263,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2686,22 +2296,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,22 +2329,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2770,22 +2362,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,22 +2395,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2854,22 +2428,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2896,22 +2461,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2938,22 +2494,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2980,22 +2527,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3022,22 +2560,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3064,22 +2593,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3106,22 +2626,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3148,22 +2659,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3190,22 +2692,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3232,22 +2725,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3274,22 +2758,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3316,22 +2791,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3358,22 +2824,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3400,22 +2857,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3442,22 +2890,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3484,22 +2923,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3526,22 +2956,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3568,22 +2989,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3610,22 +3022,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3652,22 +3055,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3694,22 +3088,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3736,22 +3121,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3778,22 +3154,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3820,22 +3187,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3862,22 +3220,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3904,22 +3253,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3946,22 +3286,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3988,22 +3319,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4030,22 +3352,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4072,22 +3385,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4114,24 +3418,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1.055889929742389</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.011848341232227</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4158,16 +3451,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4194,16 +3484,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4230,16 +3517,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4266,16 +3550,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4302,16 +3583,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4338,16 +3616,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4374,16 +3649,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4410,16 +3682,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4444,18 +3713,15 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4482,16 +3748,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4516,18 +3779,15 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4552,18 +3812,15 @@
         <v>5740370.429838208</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4588,18 +3845,15 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4624,18 +3878,15 @@
         <v>4944459.880538208</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4662,16 +3913,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4698,16 +3946,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4732,18 +3977,15 @@
         <v>4827055.232738208</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4768,18 +4010,15 @@
         <v>4689680.161338208</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4806,16 +4045,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4840,18 +4076,15 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4878,16 +4111,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4912,18 +4142,15 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4950,16 +4177,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4986,16 +4210,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5022,16 +4243,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5058,16 +4276,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5094,16 +4309,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5130,16 +4342,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5166,16 +4375,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5202,16 +4408,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5236,18 +4439,15 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5274,16 +4474,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5310,16 +4507,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5346,16 +4540,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5380,18 +4571,15 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5418,16 +4606,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5452,18 +4637,15 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5490,16 +4672,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5526,16 +4705,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5562,16 +4738,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5598,16 +4771,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5634,16 +4804,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5670,16 +4837,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5706,16 +4870,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,16 +4903,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5778,16 +4936,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5814,16 +4969,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5848,18 +5000,15 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5884,18 +5033,15 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5920,18 +5066,15 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5956,20 +5099,17 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>978321.6765847496</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1041573.67658475</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,12 +562,14 @@
         <v>1177450.99998475</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.27</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -589,12 +603,14 @@
         <v>1337883.81053909</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.28</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -628,12 +644,14 @@
         <v>1399823.35073909</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -667,12 +685,14 @@
         <v>1374268.35073909</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.35</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -708,8 +728,12 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -743,12 +767,12 @@
         <v>1501846.35073909</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -782,12 +806,12 @@
         <v>1540687.21273909</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -824,7 +848,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -858,10 +884,12 @@
         <v>1674491.97953909</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -898,7 +926,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -935,7 +965,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -972,7 +1004,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1006,10 +1040,12 @@
         <v>1737641.18963909</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1043,10 +1079,12 @@
         <v>1737641.18963909</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,7 +1121,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,7 +1160,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,7 +1199,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1194,7 +1238,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1228,10 +1274,12 @@
         <v>2588814.602839089</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1268,7 +1316,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,16 +1352,20 @@
         <v>2667205.482438209</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1337,11 +1391,17 @@
         <v>2614567.66683821</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1370,11 +1430,17 @@
         <v>2614577.66683821</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1406,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1439,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1469,11 +1547,17 @@
         <v>2581036.66683821</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,11 +1586,17 @@
         <v>2581046.66683821</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1538,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1571,8 +1667,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1604,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1637,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1670,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1703,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1736,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1769,8 +1901,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1802,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1835,8 +1979,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1868,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1901,8 +2057,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1934,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1967,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2000,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2033,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2066,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2099,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2132,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2162,11 +2366,17 @@
         <v>2741808.028838209</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2198,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2231,8 +2447,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2264,8 +2486,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2297,8 +2525,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2330,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2363,8 +2603,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2396,8 +2642,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2429,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2462,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2495,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2528,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2561,8 +2837,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2594,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2915,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2660,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2693,8 +2993,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2726,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2759,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2792,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2825,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2858,8 +3188,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2891,8 +3227,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2924,8 +3266,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2957,8 +3305,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2990,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3023,8 +3383,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3056,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3089,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3122,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3155,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3188,8 +3578,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3221,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3254,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3287,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3320,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3353,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3386,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3419,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3452,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3485,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3518,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3551,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3584,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3617,8 +4085,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3650,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3683,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3713,13 +4199,19 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>1.037154566744731</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3746,7 +4238,7 @@
         <v>5897385.216538209</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3779,7 +4271,7 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3812,7 +4304,7 @@
         <v>5740370.429838208</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3845,7 +4337,7 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3878,7 +4370,7 @@
         <v>4944459.880538208</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3977,7 +4469,7 @@
         <v>4827055.232738208</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4010,7 +4502,7 @@
         <v>4689680.161338208</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4076,7 +4568,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4109,7 +4601,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4142,7 +4634,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4175,7 +4667,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4208,7 +4700,7 @@
         <v>4478815.003338208</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4241,7 +4733,7 @@
         <v>4254815.003338208</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4274,7 +4766,7 @@
         <v>4254915.003338208</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4307,7 +4799,7 @@
         <v>4019919.656538208</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4340,7 +4832,7 @@
         <v>4019929.656538208</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4373,7 +4865,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4406,7 +4898,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4439,7 +4931,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4472,7 +4964,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4505,7 +4997,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4571,7 +5063,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4637,7 +5129,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5000,7 +5492,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5033,7 +5525,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5066,7 +5558,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5099,7 +5591,7 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5110,6 +5602,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -603,11 +603,9 @@
         <v>1337883.81053909</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>4.27</v>
       </c>
@@ -685,11 +683,9 @@
         <v>1374268.35073909</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>4.27</v>
       </c>
@@ -1235,7 +1231,7 @@
         <v>2590250.665339089</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -1243,13 +1239,15 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>1.069941451990633</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.011848341232227</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1277,14 +1275,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1308,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1341,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1374,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1407,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1440,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1473,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1539,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1572,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1605,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1638,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,14 +1671,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1704,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1737,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1803,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1836,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1869,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1935,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1968,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +2001,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2171,17 +2031,11 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2210,17 +2064,11 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2249,17 +2097,11 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2288,17 +2130,11 @@
         <v>2084540.007938209</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2166,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2199,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2232,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2265,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2483,17 +2295,11 @@
         <v>2727169.028838209</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2331,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2364,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2397,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2430,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2463,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2496,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2529,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2562,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2595,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2628,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2912,17 +2658,11 @@
         <v>3461670.697038209</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2727,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2760,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2793,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2826,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2859,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2958,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2991,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +3024,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +3057,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3123,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3156,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3189,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3614,17 +3252,11 @@
         <v>3633119.281738209</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3653,17 +3285,11 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3692,17 +3318,11 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3731,17 +3351,11 @@
         <v>5406887.982038208</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3387,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3420,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3453,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3519,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3552,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3585,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3618,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3651,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3684,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3717,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4199,19 +3747,13 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1.037154566744731</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -4238,7 +3780,7 @@
         <v>5897385.216538209</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4271,7 +3813,7 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4337,7 +3879,7 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4469,7 +4011,7 @@
         <v>4827055.232738208</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4502,7 +4044,7 @@
         <v>4689680.161338208</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4601,7 +4143,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4634,7 +4176,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4667,7 +4209,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4700,7 +4242,7 @@
         <v>4478815.003338208</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4733,7 +4275,7 @@
         <v>4254815.003338208</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4766,7 +4308,7 @@
         <v>4254915.003338208</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4799,7 +4341,7 @@
         <v>4019919.656538208</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4832,7 +4374,7 @@
         <v>4019929.656538208</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4865,7 +4407,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4898,7 +4440,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4931,7 +4473,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4964,7 +4506,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4997,7 +4539,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5063,7 +4605,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5129,7 +4671,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5591,7 +5133,7 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5602,6 +5144,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -603,9 +603,11 @@
         <v>1337883.81053909</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.28</v>
+      </c>
       <c r="J6" t="n">
         <v>4.27</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>2590250.665339089</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -1239,15 +1241,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.069941451990633</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.011848341232227</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1272,13 +1272,19 @@
         <v>2588814.602839089</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>1.018419203747073</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1371,7 +1377,7 @@
         <v>2614567.66683821</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2031,7 +2037,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2064,7 +2070,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2097,7 +2103,7 @@
         <v>1585251.550038209</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2130,7 +2136,7 @@
         <v>2084540.007938209</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2295,7 +2301,7 @@
         <v>2727169.028838209</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2658,7 +2664,7 @@
         <v>3461670.697038209</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3252,7 +3258,7 @@
         <v>3633119.281738209</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3285,7 +3291,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3318,7 +3324,7 @@
         <v>3633129.281738209</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3351,7 +3357,7 @@
         <v>5406887.982038208</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3516,7 +3522,7 @@
         <v>5792159.291338209</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3549,7 +3555,7 @@
         <v>5711649.448338209</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3582,7 +3588,7 @@
         <v>5711749.448338209</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3615,7 +3621,7 @@
         <v>5757749.448338209</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3648,7 +3654,7 @@
         <v>5686752.804838208</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3681,7 +3687,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3714,7 +3720,7 @@
         <v>6113480.262838208</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3747,7 +3753,7 @@
         <v>6086895.262838208</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3780,7 +3786,7 @@
         <v>5897385.216538209</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3813,7 +3819,7 @@
         <v>5897396.216538209</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3846,7 +3852,7 @@
         <v>5740370.429838208</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3879,7 +3885,7 @@
         <v>5740381.429838208</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3912,7 +3918,7 @@
         <v>4944459.880538208</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3945,7 +3951,7 @@
         <v>4944469.880538208</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4110,7 +4116,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4143,7 +4149,7 @@
         <v>4817515.454738208</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4176,7 +4182,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4209,7 +4215,7 @@
         <v>4817415.454738208</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4242,7 +4248,7 @@
         <v>4478815.003338208</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4275,7 +4281,7 @@
         <v>4254815.003338208</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4407,7 +4413,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4440,7 +4446,7 @@
         <v>4016929.656538208</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4473,7 +4479,7 @@
         <v>3974529.919438208</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4605,7 +4611,7 @@
         <v>3974539.919438208</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4638,7 +4644,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4704,7 +4710,7 @@
         <v>3974639.919438208</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5067,7 +5073,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5100,7 +5106,7 @@
         <v>3947153.293838208</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5133,7 +5139,7 @@
         <v>3947061.293838208</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest XVG.xlsx
+++ b/BackTest/2019-10-28 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33660.42154566</v>
       </c>
       <c r="G2" t="n">
-        <v>992972.6765847496</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>14651</v>
       </c>
       <c r="G3" t="n">
-        <v>978321.6765847496</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4.27</v>
       </c>
       <c r="I3" t="n">
         <v>4.27</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>63252</v>
       </c>
       <c r="G4" t="n">
-        <v>1041573.67658475</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4.22</v>
       </c>
       <c r="I4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J4" t="n">
         <v>4.27</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>135877.3234</v>
       </c>
       <c r="G5" t="n">
-        <v>1177450.99998475</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4.27</v>
       </c>
       <c r="I5" t="n">
         <v>4.27</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>160432.81055434</v>
       </c>
       <c r="G6" t="n">
-        <v>1337883.81053909</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4.28</v>
       </c>
       <c r="I6" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J6" t="n">
         <v>4.27</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>61939.5402</v>
       </c>
       <c r="G7" t="n">
-        <v>1399823.35073909</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J7" t="n">
         <v>4.27</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,24 +659,23 @@
         <v>25555</v>
       </c>
       <c r="G8" t="n">
-        <v>1374268.35073909</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.27</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,26 +697,23 @@
         <v>127578</v>
       </c>
       <c r="G9" t="n">
-        <v>1501846.35073909</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4.24</v>
       </c>
       <c r="I9" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J9" t="n">
         <v>4.27</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,24 +735,21 @@
         <v>70054</v>
       </c>
       <c r="G10" t="n">
-        <v>1501846.35073909</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>4.27</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,24 +771,21 @@
         <v>38840.862</v>
       </c>
       <c r="G11" t="n">
-        <v>1540687.21273909</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>4.27</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,24 +807,21 @@
         <v>62141.2957</v>
       </c>
       <c r="G12" t="n">
-        <v>1540687.21273909</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>4.27</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,24 +843,21 @@
         <v>133804.7668</v>
       </c>
       <c r="G13" t="n">
-        <v>1674491.97953909</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>4.27</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +879,21 @@
         <v>28606.27</v>
       </c>
       <c r="G14" t="n">
-        <v>1674491.97953909</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>4.27</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +915,21 @@
         <v>77566.21000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>1752058.18953909</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>4.27</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +951,21 @@
         <v>2278.53881278</v>
       </c>
       <c r="G16" t="n">
-        <v>1752058.18953909</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>4.27</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +987,21 @@
         <v>14416.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>1737641.18963909</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>4.27</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1023,21 @@
         <v>12950</v>
       </c>
       <c r="G18" t="n">
-        <v>1737641.18963909</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>4.27</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1059,21 @@
         <v>176165.0317</v>
       </c>
       <c r="G19" t="n">
-        <v>1913806.22133909</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>4.27</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1095,21 @@
         <v>19740</v>
       </c>
       <c r="G20" t="n">
-        <v>1913806.22133909</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>4.27</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1131,21 @@
         <v>160000</v>
       </c>
       <c r="G21" t="n">
-        <v>2073806.22133909</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>4.27</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1167,21 @@
         <v>516444.444</v>
       </c>
       <c r="G22" t="n">
-        <v>2590250.665339089</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>4.27</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,123 +1203,129 @@
         <v>1436.0625</v>
       </c>
       <c r="G23" t="n">
-        <v>2588814.602839089</v>
-      </c>
-      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70876.90579999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7513.97379912</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F26" t="n">
+        <v>52637.8156</v>
+      </c>
+      <c r="G26" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>4.27</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1.018419203747073</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F24" t="n">
-        <v>70876.90579999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2659691.508639089</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7513.97379912</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2667205.482438209</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F26" t="n">
-        <v>52637.8156</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2614567.66683821</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1.027786885245902</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1407,18 +1347,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>2614577.66683821</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1440,18 +1377,15 @@
         <v>33551</v>
       </c>
       <c r="G28" t="n">
-        <v>2581026.66683821</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1473,18 +1407,15 @@
         <v>62035.8965</v>
       </c>
       <c r="G29" t="n">
-        <v>2581026.66683821</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1506,18 +1437,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>2581036.66683821</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1539,18 +1467,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>2581046.66683821</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,18 +1497,15 @@
         <v>321553.336</v>
       </c>
       <c r="G32" t="n">
-        <v>2259493.330838209</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1605,18 +1527,15 @@
         <v>27013.9325</v>
       </c>
       <c r="G33" t="n">
-        <v>2286507.26333821</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1638,18 +1557,15 @@
         <v>561.9375</v>
       </c>
       <c r="G34" t="n">
-        <v>2285945.32583821</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1671,18 +1587,15 @@
         <v>103548.9091</v>
       </c>
       <c r="G35" t="n">
-        <v>2389494.234938209</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1704,18 +1617,15 @@
         <v>17082</v>
       </c>
       <c r="G36" t="n">
-        <v>2389494.234938209</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1737,18 +1647,15 @@
         <v>220842.3355</v>
       </c>
       <c r="G37" t="n">
-        <v>2389494.234938209</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,18 +1677,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>2389504.234938209</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1803,18 +1707,15 @@
         <v>35171.85</v>
       </c>
       <c r="G39" t="n">
-        <v>2354332.384938209</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1836,18 +1737,15 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>2354342.384938209</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1869,18 +1767,15 @@
         <v>2263.4448</v>
       </c>
       <c r="G41" t="n">
-        <v>2352078.940138209</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1902,18 +1797,15 @@
         <v>107067.6326</v>
       </c>
       <c r="G42" t="n">
-        <v>2352078.940138209</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1935,18 +1827,15 @@
         <v>766827.3901</v>
       </c>
       <c r="G43" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1857,15 @@
         <v>422740</v>
       </c>
       <c r="G44" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2001,18 +1887,15 @@
         <v>29205.6074</v>
       </c>
       <c r="G45" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2034,18 +1917,15 @@
         <v>79793</v>
       </c>
       <c r="G46" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2067,18 +1947,15 @@
         <v>591960</v>
       </c>
       <c r="G47" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2100,18 +1977,15 @@
         <v>62717</v>
       </c>
       <c r="G48" t="n">
-        <v>1585251.550038209</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2133,18 +2007,15 @@
         <v>499288.4579</v>
       </c>
       <c r="G49" t="n">
-        <v>2084540.007938209</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2166,18 +2037,15 @@
         <v>661692.7989000001</v>
       </c>
       <c r="G50" t="n">
-        <v>2746232.806838209</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2199,18 +2067,15 @@
         <v>4424.778</v>
       </c>
       <c r="G51" t="n">
-        <v>2741808.028838209</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2232,18 +2097,15 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>2741808.028838209</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,18 +2127,15 @@
         <v>14651</v>
       </c>
       <c r="G53" t="n">
-        <v>2727157.028838209</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,18 +2157,15 @@
         <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>2727169.028838209</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2331,18 +2187,15 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>2727169.028838209</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2364,18 +2217,15 @@
         <v>14651</v>
       </c>
       <c r="G56" t="n">
-        <v>2712518.028838209</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2397,18 +2247,15 @@
         <v>1215893.8634</v>
       </c>
       <c r="G57" t="n">
-        <v>3928411.892238209</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2430,18 +2277,15 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>3928400.892238209</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2463,18 +2307,15 @@
         <v>840</v>
       </c>
       <c r="G59" t="n">
-        <v>3928400.892238209</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2496,18 +2337,15 @@
         <v>12833.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>3915566.892338209</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2529,18 +2367,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>3915576.892338209</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,18 +2397,15 @@
         <v>431297.9126</v>
       </c>
       <c r="G62" t="n">
-        <v>3484278.979738209</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2595,18 +2427,15 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>3484288.979738209</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2628,18 +2457,15 @@
         <v>22703.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3461585.879738209</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2661,18 +2487,15 @@
         <v>84.8173</v>
       </c>
       <c r="G65" t="n">
-        <v>3461670.697038209</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2694,18 +2517,15 @@
         <v>28000</v>
       </c>
       <c r="G66" t="n">
-        <v>3433670.697038209</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2727,18 +2547,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>3433680.697038209</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2760,18 +2577,15 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>3433680.697038209</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,18 +2607,15 @@
         <v>2900</v>
       </c>
       <c r="G69" t="n">
-        <v>3436580.697038209</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2826,18 +2637,15 @@
         <v>93712</v>
       </c>
       <c r="G70" t="n">
-        <v>3342868.697038209</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,18 +2667,15 @@
         <v>27437.5486</v>
       </c>
       <c r="G71" t="n">
-        <v>3370306.245638209</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2892,18 +2697,15 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>3370316.245638209</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2925,18 +2727,15 @@
         <v>8777</v>
       </c>
       <c r="G73" t="n">
-        <v>3361539.245638209</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2958,18 +2757,15 @@
         <v>12</v>
       </c>
       <c r="G74" t="n">
-        <v>3361551.245638209</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2991,18 +2787,15 @@
         <v>6012</v>
       </c>
       <c r="G75" t="n">
-        <v>3361551.245638209</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3024,18 +2817,15 @@
         <v>3100</v>
       </c>
       <c r="G76" t="n">
-        <v>3361551.245638209</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3057,18 +2847,15 @@
         <v>142110.1449</v>
       </c>
       <c r="G77" t="n">
-        <v>3219441.100738209</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3090,18 +2877,15 @@
         <v>36407.7054</v>
       </c>
       <c r="G78" t="n">
-        <v>3255848.806138209</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3123,18 +2907,15 @@
         <v>16043</v>
       </c>
       <c r="G79" t="n">
-        <v>3239805.806138209</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3156,18 +2937,15 @@
         <v>38250.2967</v>
       </c>
       <c r="G80" t="n">
-        <v>3239805.806138209</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3189,18 +2967,15 @@
         <v>200</v>
       </c>
       <c r="G81" t="n">
-        <v>3240005.806138209</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3222,18 +2997,15 @@
         <v>9113.636363629999</v>
       </c>
       <c r="G82" t="n">
-        <v>3240005.806138209</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3255,18 +3027,15 @@
         <v>393113.4756</v>
       </c>
       <c r="G83" t="n">
-        <v>3633119.281738209</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3288,18 +3057,15 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>3633129.281738209</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3321,18 +3087,15 @@
         <v>108482.2395</v>
       </c>
       <c r="G85" t="n">
-        <v>3633129.281738209</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3354,18 +3117,15 @@
         <v>1773758.7003</v>
       </c>
       <c r="G86" t="n">
-        <v>5406887.982038208</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3387,18 +3147,15 @@
         <v>20144.444</v>
       </c>
       <c r="G87" t="n">
-        <v>5427032.426038208</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3420,18 +3177,15 @@
         <v>151753.5288</v>
       </c>
       <c r="G88" t="n">
-        <v>5578785.954838209</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3453,18 +3207,15 @@
         <v>75224.0422</v>
       </c>
       <c r="G89" t="n">
-        <v>5654009.997038209</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3486,18 +3237,15 @@
         <v>138149.2943</v>
       </c>
       <c r="G90" t="n">
-        <v>5792159.291338209</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3519,18 +3267,15 @@
         <v>57605.7658</v>
       </c>
       <c r="G91" t="n">
-        <v>5792159.291338209</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3552,18 +3297,15 @@
         <v>80509.84299999999</v>
       </c>
       <c r="G92" t="n">
-        <v>5711649.448338209</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3585,18 +3327,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>5711749.448338209</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3618,18 +3357,15 @@
         <v>46000</v>
       </c>
       <c r="G94" t="n">
-        <v>5757749.448338209</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3651,18 +3387,15 @@
         <v>70996.64350000001</v>
       </c>
       <c r="G95" t="n">
-        <v>5686752.804838208</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3684,18 +3417,15 @@
         <v>426727.458</v>
       </c>
       <c r="G96" t="n">
-        <v>6113480.262838208</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3717,18 +3447,15 @@
         <v>21799.1711</v>
       </c>
       <c r="G97" t="n">
-        <v>6113480.262838208</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3750,18 +3477,15 @@
         <v>26585</v>
       </c>
       <c r="G98" t="n">
-        <v>6086895.262838208</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3783,18 +3507,15 @@
         <v>189510.0463</v>
       </c>
       <c r="G99" t="n">
-        <v>5897385.216538209</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3816,18 +3537,15 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>5897396.216538209</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3849,18 +3567,15 @@
         <v>157025.7867</v>
       </c>
       <c r="G101" t="n">
-        <v>5740370.429838208</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3882,18 +3597,15 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>5740381.429838208</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3915,18 +3627,15 @@
         <v>795921.5493</v>
       </c>
       <c r="G103" t="n">
-        <v>4944459.880538208</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3948,18 +3657,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>4944469.880538208</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3981,18 +3687,15 @@
         <v>117424.6478</v>
       </c>
       <c r="G105" t="n">
-        <v>4827045.232738208</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4014,18 +3717,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4827055.232738208</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4047,18 +3747,15 @@
         <v>137375.0714</v>
       </c>
       <c r="G107" t="n">
-        <v>4689680.161338208</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4080,18 +3777,15 @@
         <v>127825.2934</v>
       </c>
       <c r="G108" t="n">
-        <v>4817505.454738208</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4113,18 +3807,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4817515.454738208</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4146,18 +3837,15 @@
         <v>9756.981900000001</v>
       </c>
       <c r="G110" t="n">
-        <v>4817515.454738208</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4179,18 +3867,15 @@
         <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>4817415.454738208</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4212,18 +3897,15 @@
         <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>4817415.454738208</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4245,18 +3927,15 @@
         <v>338600.4514</v>
       </c>
       <c r="G113" t="n">
-        <v>4478815.003338208</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4278,18 +3957,15 @@
         <v>224000</v>
       </c>
       <c r="G114" t="n">
-        <v>4254815.003338208</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4311,18 +3987,15 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>4254915.003338208</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4344,18 +4017,15 @@
         <v>234995.3468</v>
       </c>
       <c r="G116" t="n">
-        <v>4019919.656538208</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4377,18 +4047,15 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>4019929.656538208</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4410,18 +4077,15 @@
         <v>3000</v>
       </c>
       <c r="G118" t="n">
-        <v>4016929.656538208</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4443,18 +4107,15 @@
         <v>508</v>
       </c>
       <c r="G119" t="n">
-        <v>4016929.656538208</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4476,18 +4137,15 @@
         <v>42399.7371</v>
       </c>
       <c r="G120" t="n">
-        <v>3974529.919438208</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4509,18 +4167,15 @@
         <v>142224.2577</v>
       </c>
       <c r="G121" t="n">
-        <v>3974529.919438208</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4542,18 +4197,15 @@
         <v>24125.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>3974529.919438208</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4575,18 +4227,15 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>3974539.919438208</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4608,18 +4257,15 @@
         <v>88911.5362</v>
       </c>
       <c r="G124" t="n">
-        <v>3974539.919438208</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4641,18 +4287,15 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>3974639.919438208</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4674,18 +4317,15 @@
         <v>45248.8687</v>
       </c>
       <c r="G126" t="n">
-        <v>3974639.919438208</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4707,18 +4347,15 @@
         <v>3396.6063</v>
       </c>
       <c r="G127" t="n">
-        <v>3974639.919438208</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4740,18 +4377,15 @@
         <v>253364.3108</v>
       </c>
       <c r="G128" t="n">
-        <v>3721275.608638208</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4773,18 +4407,15 @@
         <v>7025.7248</v>
       </c>
       <c r="G129" t="n">
-        <v>3728301.333438208</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4806,18 +4437,15 @@
         <v>39480</v>
       </c>
       <c r="G130" t="n">
-        <v>3728301.333438208</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4839,18 +4467,15 @@
         <v>88729.0944</v>
       </c>
       <c r="G131" t="n">
-        <v>3817030.427838208</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4872,18 +4497,15 @@
         <v>8479.505300000001</v>
       </c>
       <c r="G132" t="n">
-        <v>3817030.427838208</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4905,18 +4527,15 @@
         <v>159375.565</v>
       </c>
       <c r="G133" t="n">
-        <v>3817030.427838208</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4938,18 +4557,15 @@
         <v>12687.0977</v>
       </c>
       <c r="G134" t="n">
-        <v>3817030.427838208</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4971,18 +4587,15 @@
         <v>109256.866</v>
       </c>
       <c r="G135" t="n">
-        <v>3926287.293838208</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5004,18 +4617,15 @@
         <v>56538.3091</v>
       </c>
       <c r="G136" t="n">
-        <v>3926287.293838208</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5037,18 +4647,15 @@
         <v>20866</v>
       </c>
       <c r="G137" t="n">
-        <v>3947153.293838208</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5070,18 +4677,15 @@
         <v>35063</v>
       </c>
       <c r="G138" t="n">
-        <v>3947153.293838208</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5103,18 +4707,15 @@
         <v>47189.7091</v>
       </c>
       <c r="G139" t="n">
-        <v>3947153.293838208</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5136,18 +4737,15 @@
         <v>92</v>
       </c>
       <c r="G140" t="n">
-        <v>3947061.293838208</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
